--- a/Information_of_MS_Systems.xlsx
+++ b/Information_of_MS_Systems.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moham\Desktop\DAMP\DAMP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moham\Desktop\20251121\DAMP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE8E4EDB-BD7F-44F4-985C-DD7A7096DC6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A1C20D-65FE-443B-B67E-66427D23D03B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information_of_Systems" sheetId="5" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1770" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1770" uniqueCount="106">
   <si>
     <t>1- Spring Netflix OSS</t>
   </si>
@@ -808,12 +808,15 @@
   <si>
     <t>25- Ticket-Train-V-0.2.0</t>
   </si>
+  <si>
+    <t>https://github.com/spring-petclinic/spring-petclinic-microservices</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -825,6 +828,14 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="LMRoman10-Regular-Identity-H"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -844,10 +855,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="distributed"/>
@@ -882,8 +894,12 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1171,7 +1187,7 @@
   <dimension ref="A1:H1032218"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1291,8 +1307,8 @@
       <c r="E5" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>79</v>
+      <c r="F5" s="12" t="s">
+        <v>105</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>103</v>
@@ -1705,7 +1721,7 @@
       <c r="E23" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="F23" s="12" t="s">
         <v>98</v>
       </c>
       <c r="G23" s="11" t="s">
@@ -1751,7 +1767,7 @@
       <c r="E25" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="F25" s="12" t="s">
         <v>99</v>
       </c>
       <c r="G25" s="11" t="s">
@@ -15215,6 +15231,11 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F5" r:id="rId1" xr:uid="{85A81B05-6142-4A4E-827D-FD2A4D082071}"/>
+    <hyperlink ref="F23" r:id="rId2" xr:uid="{07F5B83F-9AF4-4D2F-BC4D-896D13B39A7C}"/>
+    <hyperlink ref="F25" r:id="rId3" xr:uid="{0F3D515E-1E8F-4437-A246-53C2B0BE64BB}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>